--- a/PricerAndQutation/工作簿1.xlsx
+++ b/PricerAndQutation/工作簿1.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,86 +26,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shifan Wu (SI)</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如需修改，请使用Excel插件-Wind-函数-编辑函数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如需修改，请使用Excel插件-Wind-函数-编辑函数</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
-    <t>20180123-CICC-MACQ-JM1805-VAN-P-66</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>RU1809.SHF</t>
   </si>
   <si>
-    <t>20180123-CICC-MACQ-JM1805-VAN-C-66</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Date</t>
   </si>
   <si>
-    <t>20171128-CICC-MACQ-JM1805-VAN-P-122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
   </si>
   <si>
-    <t>20171128-CICC-MACQ-JM1805-VAN-C-122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>close</t>
   </si>
   <si>
-    <t>20171109-CICC-MACQ-RB1805-VAN-P-140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收盘价</t>
+    </r>
   </si>
   <si>
-    <t>20171109-CICC-MACQ-RB1805-VAN-C-140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>RU1901.SHF</t>
   </si>
   <si>
-    <t>qty</t>
+    <t>ru1709.shf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>otm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>ru1801.shf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,6 +117,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,10 +139,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -139,58 +149,30 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -199,21 +181,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,6 +209,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="WSD"/>
+      <definedName name="WSS"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,178 +494,1468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="4" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="str">
+        <f>[1]!WSS(E5,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+        <v>橡胶1809</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>[1]!WSS(H5,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+        <v>橡胶1901</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>[1]!WSS(L5,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+        <v>橡胶1709</v>
+      </c>
+      <c r="O4" s="1" t="str">
+        <f>[1]!WSS(O5,"sec_name","ShowCodes=N","cols=1;rows=1")</f>
+        <v>橡胶1801</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4">
-        <v>-12000</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1200</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D8" s="2">
+        <v>43117</v>
+      </c>
+      <c r="E8" s="3">
+        <f>[1]!WSD(E5,E7:E7,"2018-01-17","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=1;rows=98")</f>
+        <v>14465</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43117</v>
+      </c>
+      <c r="H8" s="3">
+        <f>[1]!WSD(H5,H7:H7,"2018-01-17","","TradingCalendar=SSE","rptType=1","ShowParams=Y","cols=1;rows=98")</f>
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D9" s="2">
+        <v>43118</v>
+      </c>
+      <c r="E9" s="3">
+        <v>14430</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43118</v>
+      </c>
+      <c r="H9" s="3">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D10" s="2">
-        <v>-12000</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1300</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>-6000</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1200.00000015</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>43119</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14315</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43119</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16170</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D11" s="2">
+        <v>43122</v>
+      </c>
+      <c r="E11" s="3">
+        <v>14325</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43122</v>
+      </c>
+      <c r="H11" s="3">
+        <v>16180</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D12" s="2">
-        <v>-3000</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1350</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>43123</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43123</v>
+      </c>
+      <c r="H12" s="3">
+        <v>15935</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D13" s="2">
-        <v>-10000</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3599.9999997999998</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>43124</v>
+      </c>
+      <c r="E13" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>43124</v>
+      </c>
+      <c r="H13" s="3">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D14" s="2">
-        <v>-10000</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4000.0000002000002</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>43125</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14005</v>
+      </c>
+      <c r="G14" s="2">
+        <v>43125</v>
+      </c>
+      <c r="H14" s="3">
+        <v>15915</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D15" s="2">
+        <v>43126</v>
+      </c>
+      <c r="E15" s="3">
+        <v>14025</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43126</v>
+      </c>
+      <c r="H15" s="3">
+        <v>15910</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D16" s="2">
+        <v>43129</v>
+      </c>
+      <c r="E16" s="3">
+        <v>14030</v>
+      </c>
+      <c r="G16" s="2">
+        <v>43129</v>
+      </c>
+      <c r="H16" s="3">
+        <v>15905</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D17" s="2">
+        <v>43130</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13690</v>
+      </c>
+      <c r="G17" s="2">
+        <v>43130</v>
+      </c>
+      <c r="H17" s="3">
+        <v>15545</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D18" s="2">
+        <v>43131</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13475</v>
+      </c>
+      <c r="G18" s="2">
+        <v>43131</v>
+      </c>
+      <c r="H18" s="3">
+        <v>15405</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D19" s="2">
+        <v>43132</v>
+      </c>
+      <c r="E19" s="3">
+        <v>13310</v>
+      </c>
+      <c r="G19" s="2">
+        <v>43132</v>
+      </c>
+      <c r="H19" s="3">
+        <v>15245</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D20" s="2">
+        <v>43133</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13355</v>
+      </c>
+      <c r="G20" s="2">
+        <v>43133</v>
+      </c>
+      <c r="H20" s="3">
+        <v>15310</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D21" s="2">
+        <v>43136</v>
+      </c>
+      <c r="E21" s="3">
+        <v>13385</v>
+      </c>
+      <c r="G21" s="2">
+        <v>43136</v>
+      </c>
+      <c r="H21" s="3">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D22" s="2">
+        <v>43137</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12955</v>
+      </c>
+      <c r="G22" s="2">
+        <v>43137</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15095</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D23" s="2">
+        <v>43138</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13025</v>
+      </c>
+      <c r="G23" s="2">
+        <v>43138</v>
+      </c>
+      <c r="H23" s="3">
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D24" s="2">
+        <v>43139</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12770</v>
+      </c>
+      <c r="G24" s="2">
+        <v>43139</v>
+      </c>
+      <c r="H24" s="3">
+        <v>14935</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D25" s="2">
+        <v>43140</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12830</v>
+      </c>
+      <c r="G25" s="2">
+        <v>43140</v>
+      </c>
+      <c r="H25" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D26" s="2">
+        <v>43143</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12910</v>
+      </c>
+      <c r="G26" s="2">
+        <v>43143</v>
+      </c>
+      <c r="H26" s="3">
+        <v>15070</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D27" s="2">
+        <v>43144</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12830</v>
+      </c>
+      <c r="G27" s="2">
+        <v>43144</v>
+      </c>
+      <c r="H27" s="3">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D28" s="2">
+        <v>43145</v>
+      </c>
+      <c r="E28" s="3">
+        <v>12890</v>
+      </c>
+      <c r="G28" s="2">
+        <v>43145</v>
+      </c>
+      <c r="H28" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D29" s="2">
+        <v>43153</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12875</v>
+      </c>
+      <c r="G29" s="2">
+        <v>43153</v>
+      </c>
+      <c r="H29" s="3">
+        <v>15080</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D30" s="2">
+        <v>43154</v>
+      </c>
+      <c r="E30" s="3">
+        <v>13245</v>
+      </c>
+      <c r="G30" s="2">
+        <v>43154</v>
+      </c>
+      <c r="H30" s="3">
+        <v>15365</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D31" s="2">
+        <v>43157</v>
+      </c>
+      <c r="E31" s="3">
+        <v>13320</v>
+      </c>
+      <c r="G31" s="2">
+        <v>43157</v>
+      </c>
+      <c r="H31" s="3">
+        <v>15455</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D32" s="2">
+        <v>43158</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13280</v>
+      </c>
+      <c r="G32" s="2">
+        <v>43158</v>
+      </c>
+      <c r="H32" s="3">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D33" s="2">
+        <v>43159</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G33" s="2">
+        <v>43159</v>
+      </c>
+      <c r="H33" s="3">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D34" s="2">
+        <v>43160</v>
+      </c>
+      <c r="E34" s="3">
+        <v>13355</v>
+      </c>
+      <c r="G34" s="2">
+        <v>43160</v>
+      </c>
+      <c r="H34" s="3">
+        <v>15460</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D35" s="2">
+        <v>43161</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13310</v>
+      </c>
+      <c r="G35" s="2">
+        <v>43161</v>
+      </c>
+      <c r="H35" s="3">
+        <v>15435</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D36" s="2">
+        <v>43164</v>
+      </c>
+      <c r="E36" s="3">
+        <v>13415</v>
+      </c>
+      <c r="G36" s="2">
+        <v>43164</v>
+      </c>
+      <c r="H36" s="3">
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D37" s="2">
+        <v>43165</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13290</v>
+      </c>
+      <c r="G37" s="2">
+        <v>43165</v>
+      </c>
+      <c r="H37" s="3">
+        <v>15330</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D38" s="2">
+        <v>43166</v>
+      </c>
+      <c r="E38" s="3">
+        <v>13245</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43166</v>
+      </c>
+      <c r="H38" s="3">
+        <v>15240</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D39" s="2">
+        <v>43167</v>
+      </c>
+      <c r="E39" s="3">
+        <v>13275</v>
+      </c>
+      <c r="G39" s="2">
+        <v>43167</v>
+      </c>
+      <c r="H39" s="3">
+        <v>15230</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D40" s="2">
+        <v>43168</v>
+      </c>
+      <c r="E40" s="3">
+        <v>12990</v>
+      </c>
+      <c r="G40" s="2">
+        <v>43168</v>
+      </c>
+      <c r="H40" s="3">
+        <v>15015</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D41" s="2">
+        <v>43171</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13060</v>
+      </c>
+      <c r="G41" s="2">
+        <v>43171</v>
+      </c>
+      <c r="H41" s="3">
+        <v>15060</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D42" s="2">
+        <v>43172</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13050</v>
+      </c>
+      <c r="G42" s="2">
+        <v>43172</v>
+      </c>
+      <c r="H42" s="3">
+        <v>14955</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D43" s="2">
+        <v>43173</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13120</v>
+      </c>
+      <c r="G43" s="2">
+        <v>43173</v>
+      </c>
+      <c r="H43" s="3">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D44" s="2">
+        <v>43174</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13115</v>
+      </c>
+      <c r="G44" s="2">
+        <v>43174</v>
+      </c>
+      <c r="H44" s="3">
+        <v>14860</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D45" s="2">
+        <v>43175</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12920</v>
+      </c>
+      <c r="G45" s="2">
+        <v>43175</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14795</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D46" s="2">
+        <v>43178</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12830</v>
+      </c>
+      <c r="G46" s="2">
+        <v>43178</v>
+      </c>
+      <c r="H46" s="3">
+        <v>14730</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D47" s="2">
+        <v>43179</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12585</v>
+      </c>
+      <c r="G47" s="2">
+        <v>43179</v>
+      </c>
+      <c r="H47" s="3">
+        <v>14575</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D48" s="2">
+        <v>43180</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12490</v>
+      </c>
+      <c r="G48" s="2">
+        <v>43180</v>
+      </c>
+      <c r="H48" s="3">
+        <v>14510</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D49" s="2">
+        <v>43181</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12455</v>
+      </c>
+      <c r="G49" s="2">
+        <v>43181</v>
+      </c>
+      <c r="H49" s="3">
+        <v>14310</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D50" s="2">
+        <v>43182</v>
+      </c>
+      <c r="E50" s="3">
+        <v>11625</v>
+      </c>
+      <c r="G50" s="2">
+        <v>43182</v>
+      </c>
+      <c r="H50" s="3">
+        <v>13415</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D51" s="2">
+        <v>43185</v>
+      </c>
+      <c r="E51" s="3">
+        <v>11390</v>
+      </c>
+      <c r="G51" s="2">
+        <v>43185</v>
+      </c>
+      <c r="H51" s="3">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D52" s="2">
+        <v>43186</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11555</v>
+      </c>
+      <c r="G52" s="2">
+        <v>43186</v>
+      </c>
+      <c r="H52" s="3">
+        <v>13610</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D53" s="2">
+        <v>43187</v>
+      </c>
+      <c r="E53" s="3">
+        <v>11450</v>
+      </c>
+      <c r="G53" s="2">
+        <v>43187</v>
+      </c>
+      <c r="H53" s="3">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D54" s="2">
+        <v>43188</v>
+      </c>
+      <c r="E54" s="3">
+        <v>11475</v>
+      </c>
+      <c r="G54" s="2">
+        <v>43188</v>
+      </c>
+      <c r="H54" s="3">
+        <v>13530</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D55" s="2">
+        <v>43189</v>
+      </c>
+      <c r="E55" s="3">
+        <v>11640</v>
+      </c>
+      <c r="G55" s="2">
+        <v>43189</v>
+      </c>
+      <c r="H55" s="3">
+        <v>13715</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D56" s="2">
+        <v>43192</v>
+      </c>
+      <c r="E56" s="3">
+        <v>11575</v>
+      </c>
+      <c r="G56" s="2">
+        <v>43192</v>
+      </c>
+      <c r="H56" s="3">
+        <v>13695</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D57" s="2">
+        <v>43193</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11430</v>
+      </c>
+      <c r="G57" s="2">
+        <v>43193</v>
+      </c>
+      <c r="H57" s="3">
+        <v>13510</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D58" s="2">
+        <v>43194</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11340</v>
+      </c>
+      <c r="G58" s="2">
+        <v>43194</v>
+      </c>
+      <c r="H58" s="3">
+        <v>13415</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D59" s="2">
+        <v>43199</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11450</v>
+      </c>
+      <c r="G59" s="2">
+        <v>43199</v>
+      </c>
+      <c r="H59" s="3">
+        <v>13510</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D60" s="2">
+        <v>43200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11580</v>
+      </c>
+      <c r="G60" s="2">
+        <v>43200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>13650</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D61" s="2">
+        <v>43201</v>
+      </c>
+      <c r="E61" s="3">
+        <v>11480</v>
+      </c>
+      <c r="G61" s="2">
+        <v>43201</v>
+      </c>
+      <c r="H61" s="3">
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D62" s="2">
+        <v>43202</v>
+      </c>
+      <c r="E62" s="3">
+        <v>11480</v>
+      </c>
+      <c r="G62" s="2">
+        <v>43202</v>
+      </c>
+      <c r="H62" s="3">
+        <v>13545</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D63" s="2">
+        <v>43203</v>
+      </c>
+      <c r="E63" s="3">
+        <v>11505</v>
+      </c>
+      <c r="G63" s="2">
+        <v>43203</v>
+      </c>
+      <c r="H63" s="3">
+        <v>13590</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D64" s="2">
+        <v>43206</v>
+      </c>
+      <c r="E64" s="3">
+        <v>11135</v>
+      </c>
+      <c r="G64" s="2">
+        <v>43206</v>
+      </c>
+      <c r="H64" s="3">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D65" s="2">
+        <v>43207</v>
+      </c>
+      <c r="E65" s="3">
+        <v>11090</v>
+      </c>
+      <c r="G65" s="2">
+        <v>43207</v>
+      </c>
+      <c r="H65" s="3">
+        <v>13145</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D66" s="2">
+        <v>43208</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11190</v>
+      </c>
+      <c r="G66" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H66" s="3">
+        <v>13235</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D67" s="2">
+        <v>43209</v>
+      </c>
+      <c r="E67" s="3">
+        <v>11780</v>
+      </c>
+      <c r="G67" s="2">
+        <v>43209</v>
+      </c>
+      <c r="H67" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D68" s="2">
+        <v>43210</v>
+      </c>
+      <c r="E68" s="3">
+        <v>11555</v>
+      </c>
+      <c r="G68" s="2">
+        <v>43210</v>
+      </c>
+      <c r="H68" s="3">
+        <v>13515</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D69" s="2">
+        <v>43213</v>
+      </c>
+      <c r="E69" s="3">
+        <v>11680</v>
+      </c>
+      <c r="G69" s="2">
+        <v>43213</v>
+      </c>
+      <c r="H69" s="3">
+        <v>13535</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D70" s="2">
+        <v>43214</v>
+      </c>
+      <c r="E70" s="3">
+        <v>11530</v>
+      </c>
+      <c r="G70" s="2">
+        <v>43214</v>
+      </c>
+      <c r="H70" s="3">
+        <v>13420</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D71" s="2">
+        <v>43215</v>
+      </c>
+      <c r="E71" s="3">
+        <v>11605</v>
+      </c>
+      <c r="G71" s="2">
+        <v>43215</v>
+      </c>
+      <c r="H71" s="3">
+        <v>13530</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D72" s="2">
+        <v>43216</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11420</v>
+      </c>
+      <c r="G72" s="2">
+        <v>43216</v>
+      </c>
+      <c r="H72" s="3">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D73" s="2">
+        <v>43217</v>
+      </c>
+      <c r="E73" s="3">
+        <v>11290</v>
+      </c>
+      <c r="G73" s="2">
+        <v>43217</v>
+      </c>
+      <c r="H73" s="3">
+        <v>13280</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D74" s="2">
+        <v>43222</v>
+      </c>
+      <c r="E74" s="3">
+        <v>11525</v>
+      </c>
+      <c r="G74" s="2">
+        <v>43222</v>
+      </c>
+      <c r="H74" s="3">
+        <v>13495</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D75" s="2">
+        <v>43223</v>
+      </c>
+      <c r="E75" s="3">
+        <v>11605</v>
+      </c>
+      <c r="G75" s="2">
+        <v>43223</v>
+      </c>
+      <c r="H75" s="3">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D76" s="2">
+        <v>43224</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11615</v>
+      </c>
+      <c r="G76" s="2">
+        <v>43224</v>
+      </c>
+      <c r="H76" s="3">
+        <v>13570</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D77" s="2">
+        <v>43227</v>
+      </c>
+      <c r="E77" s="3">
+        <v>11765</v>
+      </c>
+      <c r="G77" s="2">
+        <v>43227</v>
+      </c>
+      <c r="H77" s="3">
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D78" s="2">
+        <v>43228</v>
+      </c>
+      <c r="E78" s="3">
+        <v>11735</v>
+      </c>
+      <c r="G78" s="2">
+        <v>43228</v>
+      </c>
+      <c r="H78" s="3">
+        <v>13660</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D79" s="2">
+        <v>43229</v>
+      </c>
+      <c r="E79" s="3">
+        <v>11605</v>
+      </c>
+      <c r="G79" s="2">
+        <v>43229</v>
+      </c>
+      <c r="H79" s="3">
+        <v>13545</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D80" s="2">
+        <v>43230</v>
+      </c>
+      <c r="E80" s="3">
+        <v>11680</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43230</v>
+      </c>
+      <c r="H80" s="3">
+        <v>13615</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D81" s="2">
+        <v>43231</v>
+      </c>
+      <c r="E81" s="3">
+        <v>11680</v>
+      </c>
+      <c r="G81" s="2">
+        <v>43231</v>
+      </c>
+      <c r="H81" s="3">
+        <v>13605</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D82" s="2">
+        <v>43234</v>
+      </c>
+      <c r="E82" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G82" s="2">
+        <v>43234</v>
+      </c>
+      <c r="H82" s="3">
+        <v>13565</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D83" s="2">
+        <v>43235</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11440</v>
+      </c>
+      <c r="G83" s="2">
+        <v>43235</v>
+      </c>
+      <c r="H83" s="3">
+        <v>13435</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D84" s="2">
+        <v>43236</v>
+      </c>
+      <c r="E84" s="3">
+        <v>11455</v>
+      </c>
+      <c r="G84" s="2">
+        <v>43236</v>
+      </c>
+      <c r="H84" s="3">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D85" s="2">
+        <v>43237</v>
+      </c>
+      <c r="E85" s="3">
+        <v>11445</v>
+      </c>
+      <c r="G85" s="2">
+        <v>43237</v>
+      </c>
+      <c r="H85" s="3">
+        <v>13435</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D86" s="2">
+        <v>43238</v>
+      </c>
+      <c r="E86" s="3">
+        <v>11765</v>
+      </c>
+      <c r="G86" s="2">
+        <v>43238</v>
+      </c>
+      <c r="H86" s="3">
+        <v>13740</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D87" s="2">
+        <v>43241</v>
+      </c>
+      <c r="E87" s="3">
+        <v>12230</v>
+      </c>
+      <c r="G87" s="2">
+        <v>43241</v>
+      </c>
+      <c r="H87" s="3">
+        <v>14275</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D88" s="2">
+        <v>43242</v>
+      </c>
+      <c r="E88" s="3">
+        <v>12155</v>
+      </c>
+      <c r="G88" s="2">
+        <v>43242</v>
+      </c>
+      <c r="H88" s="3">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D89" s="2">
+        <v>43243</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11860</v>
+      </c>
+      <c r="G89" s="2">
+        <v>43243</v>
+      </c>
+      <c r="H89" s="3">
+        <v>13925</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D90" s="2">
+        <v>43244</v>
+      </c>
+      <c r="E90" s="3">
+        <v>11855</v>
+      </c>
+      <c r="G90" s="2">
+        <v>43244</v>
+      </c>
+      <c r="H90" s="3">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D91" s="2">
+        <v>43245</v>
+      </c>
+      <c r="E91" s="3">
+        <v>11875</v>
+      </c>
+      <c r="G91" s="2">
+        <v>43245</v>
+      </c>
+      <c r="H91" s="3">
+        <v>13945</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D92" s="2">
+        <v>43248</v>
+      </c>
+      <c r="E92" s="3">
+        <v>11720</v>
+      </c>
+      <c r="G92" s="2">
+        <v>43248</v>
+      </c>
+      <c r="H92" s="3">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D93" s="2">
+        <v>43249</v>
+      </c>
+      <c r="E93" s="3">
+        <v>11930</v>
+      </c>
+      <c r="G93" s="2">
+        <v>43249</v>
+      </c>
+      <c r="H93" s="3">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D94" s="2">
+        <v>43250</v>
+      </c>
+      <c r="E94" s="3">
+        <v>11655</v>
+      </c>
+      <c r="G94" s="2">
+        <v>43250</v>
+      </c>
+      <c r="H94" s="3">
+        <v>13715</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D95" s="2">
+        <v>43251</v>
+      </c>
+      <c r="E95" s="3">
+        <v>11670</v>
+      </c>
+      <c r="G95" s="2">
+        <v>43251</v>
+      </c>
+      <c r="H95" s="3">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D96" s="2">
+        <v>43252</v>
+      </c>
+      <c r="E96" s="3">
+        <v>11680</v>
+      </c>
+      <c r="G96" s="2">
+        <v>43252</v>
+      </c>
+      <c r="H96" s="3">
+        <v>13760</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D97" s="2">
+        <v>43255</v>
+      </c>
+      <c r="E97" s="3">
+        <v>11695</v>
+      </c>
+      <c r="G97" s="2">
+        <v>43255</v>
+      </c>
+      <c r="H97" s="3">
+        <v>13780</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D98" s="2">
+        <v>43256</v>
+      </c>
+      <c r="E98" s="3">
+        <v>11605</v>
+      </c>
+      <c r="G98" s="2">
+        <v>43256</v>
+      </c>
+      <c r="H98" s="3">
+        <v>13695</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D99" s="2">
+        <v>43257</v>
+      </c>
+      <c r="E99" s="3">
+        <v>11620</v>
+      </c>
+      <c r="G99" s="2">
+        <v>43257</v>
+      </c>
+      <c r="H99" s="3">
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D100" s="2">
+        <v>43258</v>
+      </c>
+      <c r="E100" s="3">
+        <v>11685</v>
+      </c>
+      <c r="G100" s="2">
+        <v>43258</v>
+      </c>
+      <c r="H100" s="3">
+        <v>13770</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D101" s="2">
+        <v>43259</v>
+      </c>
+      <c r="E101" s="3">
+        <v>11415</v>
+      </c>
+      <c r="G101" s="2">
+        <v>43259</v>
+      </c>
+      <c r="H101" s="3">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D102" s="2">
+        <v>43262</v>
+      </c>
+      <c r="E102" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G102" s="2">
+        <v>43262</v>
+      </c>
+      <c r="H102" s="3">
+        <v>13480</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D103" s="2">
+        <v>43263</v>
+      </c>
+      <c r="E103" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43263</v>
+      </c>
+      <c r="H103" s="3">
+        <v>13470</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D104" s="2">
+        <v>43264</v>
+      </c>
+      <c r="E104" s="3">
+        <v>10835</v>
+      </c>
+      <c r="G104" s="2">
+        <v>43264</v>
+      </c>
+      <c r="H104" s="3">
+        <v>12685</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D105" s="2">
+        <v>43265</v>
+      </c>
+      <c r="E105" s="3">
+        <v>10835</v>
+      </c>
+      <c r="G105" s="2">
+        <v>43265</v>
+      </c>
+      <c r="H105" s="3">
+        <v>12685</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>